--- a/Server/Server/GameData/Info 모음.xlsx
+++ b/Server/Server/GameData/Info 모음.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\프로젝트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15319ECF-2B40-488C-92DC-E12216324500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF63FD-26BB-4928-8DC6-7D9F702AB410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="7" xr2:uid="{0EE3B70C-BDC0-43AA-9FD5-97CF5F02FB54}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{0EE3B70C-BDC0-43AA-9FD5-97CF5F02FB54}"/>
   </bookViews>
   <sheets>
     <sheet name="Index_Info" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="169">
   <si>
     <t>오브젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
   </si>
   <si>
     <t>후라이팬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빠루</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -740,6 +736,22 @@
     <t>기력소모O
 Ch_Strength 영향 받음
 공격력: Ch_Strength + Weapon_Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방망이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block_2_2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block_2_2_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1536,7 +1548,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F7" sqref="F7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1557,7 +1569,7 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1565,7 +1577,7 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1584,13 +1596,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5332D5F8-411A-4982-9238-22C170B20569}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
@@ -1598,6 +1613,30 @@
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>3000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>3001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1696,7 +1735,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -1732,42 +1771,42 @@
     </row>
     <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="21"/>
@@ -1776,19 +1815,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="21"/>
@@ -1797,19 +1836,19 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="21"/>
@@ -1979,7 +2018,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -1993,16 +2032,16 @@
     </row>
     <row r="2" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
@@ -2013,16 +2052,16 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -2033,16 +2072,16 @@
     </row>
     <row r="4" spans="1:10" ht="153" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -2053,16 +2092,16 @@
     </row>
     <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -2073,16 +2112,16 @@
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -2093,7 +2132,7 @@
     </row>
     <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -2107,14 +2146,14 @@
     </row>
     <row r="8" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
@@ -2125,148 +2164,148 @@
     </row>
     <row r="9" spans="1:10" ht="85" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -2274,119 +2313,119 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
@@ -2394,86 +2433,86 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2508,40 +2547,40 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -2549,10 +2588,10 @@
     </row>
     <row r="6" spans="1:17" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
@@ -2561,82 +2600,82 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="18:18" x14ac:dyDescent="0.45">
@@ -2655,7 +2694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409F2A48-AB46-4631-AD0C-84B4807B2A12}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2668,7 +2707,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2676,59 +2715,59 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
         <v>156</v>
-      </c>
-      <c r="B5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
         <v>158</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
         <v>161</v>
-      </c>
-      <c r="B7" t="s">
-        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Server/Server/GameData/Info 모음.xlsx
+++ b/Server/Server/GameData/Info 모음.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BF63FD-26BB-4928-8DC6-7D9F702AB410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B960571-B575-4DF8-942E-94A1C2CB0926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{0EE3B70C-BDC0-43AA-9FD5-97CF5F02FB54}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{0EE3B70C-BDC0-43AA-9FD5-97CF5F02FB54}"/>
   </bookViews>
   <sheets>
     <sheet name="Index_Info" sheetId="1" r:id="rId1"/>
     <sheet name="Index_Character_Info" sheetId="2" r:id="rId2"/>
     <sheet name="Index_Weapon_Info" sheetId="3" r:id="rId3"/>
     <sheet name="Index_Object_Info" sheetId="4" r:id="rId4"/>
-    <sheet name="Character_Info" sheetId="6" r:id="rId5"/>
-    <sheet name="Character_Stat_Info" sheetId="7" r:id="rId6"/>
-    <sheet name="Character_animationList_Info" sheetId="8" r:id="rId7"/>
-    <sheet name="Weapon_Stat_Info" sheetId="9" r:id="rId8"/>
+    <sheet name="Index_Item" sheetId="10" r:id="rId5"/>
+    <sheet name="Character_Info" sheetId="6" r:id="rId6"/>
+    <sheet name="Character_Stat_Info" sheetId="7" r:id="rId7"/>
+    <sheet name="Character_animationList_Info" sheetId="8" r:id="rId8"/>
+    <sheet name="Weapon_Stat_Info" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>오브젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,6 +753,22 @@
   </si>
   <si>
     <t>Block_2_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000~4999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1골드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1418,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8A9B9F-4848-4A75-A32A-8F68B590C082}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1459,6 +1476,14 @@
       </c>
       <c r="B4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1573,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1598,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5332D5F8-411A-4982-9238-22C170B20569}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1646,6 +1671,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEDAD21-85DB-430E-8878-975407F5013D}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>4000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>4100</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DAD4FE-D4EB-4A80-ADBB-D14BD1A41C82}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -1998,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37893003-D4C6-42D5-BD22-2F6CD43E8033}">
   <dimension ref="A1:K39"/>
   <sheetViews>
@@ -2528,7 +2593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72E42FD-3398-45FD-8D43-6CC87711740D}">
   <dimension ref="A1:R30"/>
   <sheetViews>
@@ -2690,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409F2A48-AB46-4631-AD0C-84B4807B2A12}">
   <dimension ref="A1:D7"/>
   <sheetViews>

--- a/Server/Server/GameData/Info 모음.xlsx
+++ b/Server/Server/GameData/Info 모음.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FestivalTownProject\Server\Server\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B960571-B575-4DF8-942E-94A1C2CB0926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466AAC79-F213-41C7-8FD6-E0B13039ACB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{0EE3B70C-BDC0-43AA-9FD5-97CF5F02FB54}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{0EE3B70C-BDC0-43AA-9FD5-97CF5F02FB54}"/>
   </bookViews>
   <sheets>
     <sheet name="Index_Info" sheetId="1" r:id="rId1"/>
@@ -392,10 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그로기 횟수에 따라 그로기 시간이 달라짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>그로기 시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -405,10 +401,6 @@
   </si>
   <si>
     <t>그로기 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Ch_GroggyNumber </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -769,6 +761,20 @@
   </si>
   <si>
     <t>1골드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ch_GroggyCount </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그로기 횟수에 따라 그로기 시간이 달라짐
+캐릭터가 죽어도 초기화 불가
+Ch_GroggyCount = 0 -&gt; 3초
+Ch_GroggyCount = 1 -&gt; 5초
+Ch_GroggyCount = 2 -&gt; 7초
+Ch_GroggyCount = 3 -&gt; 9초
+Ch_GroggyCount &gt; 3 -&gt; 10초</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1480,10 +1486,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1602,7 +1608,7 @@
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1645,7 +1651,7 @@
         <v>3000</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1653,7 +1659,7 @@
         <v>3001</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -1661,7 +1667,7 @@
         <v>3002</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEEDAD21-85DB-430E-8878-975407F5013D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -1693,7 +1699,7 @@
         <v>4000</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
@@ -1701,7 +1707,7 @@
         <v>4100</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2067,8 +2073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37893003-D4C6-42D5-BD22-2F6CD43E8033}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2083,7 +2089,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="26" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2103,7 +2109,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>43</v>
@@ -2117,16 +2123,16 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -2137,16 +2143,16 @@
     </row>
     <row r="4" spans="1:10" ht="153" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -2157,16 +2163,16 @@
     </row>
     <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -2177,16 +2183,16 @@
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -2197,7 +2203,7 @@
     </row>
     <row r="7" spans="1:10" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -2229,87 +2235,87 @@
     </row>
     <row r="9" spans="1:10" ht="85" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="132.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="12" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
@@ -2360,10 +2366,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="12"/>
@@ -2430,7 +2436,7 @@
         <v>61</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.45">
@@ -2442,7 +2448,7 @@
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
@@ -2529,7 +2535,7 @@
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -2612,13 +2618,13 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>44</v>
@@ -2626,26 +2632,26 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
@@ -2653,10 +2659,10 @@
     </row>
     <row r="6" spans="1:17" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
@@ -2665,82 +2671,82 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="18:18" x14ac:dyDescent="0.45">
@@ -2772,7 +2778,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -2786,7 +2792,7 @@
         <v>44</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>43</v>
@@ -2794,45 +2800,45 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
         <v>152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
